--- a/src/raw_data/correction of detection .xlsx
+++ b/src/raw_data/correction of detection .xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1652B342-97A5-D84D-A624-616DA8AE7118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D103CBFC-55A8-E242-9624-FA0B544A57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="7340" windowWidth="27240" windowHeight="16440" xr2:uid="{2D99D46F-514D-2B46-BA32-84B5FAB9E921}"/>
+    <workbookView xWindow="1740" yWindow="5800" windowWidth="27240" windowHeight="16440" xr2:uid="{2D99D46F-514D-2B46-BA32-84B5FAB9E921}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -159,13 +160,791 @@
   </si>
   <si>
     <t>+ not any(re.match(rf"^{re.escape(p)}", street_number) for p in roman_numbers + hn_patterns)</t>
+  </si>
+  <si>
+    <t>[field]_valid</t>
+  </si>
+  <si>
+    <t>[field]_detected_errors</t>
+  </si>
+  <si>
+    <t>has_[field]_errors</t>
+  </si>
+  <si>
+    <t>[field]_corrected_errors</t>
+  </si>
+  <si>
+    <t>was_[field]_corrected</t>
+  </si>
+  <si>
+    <t>[field]_corrected</t>
+  </si>
+  <si>
+    <t>[field]_valid_after_correction</t>
+  </si>
+  <si>
+    <t>[field]_status</t>
+  </si>
+  <si>
+    <t>_valid</t>
+  </si>
+  <si>
+    <t>_detected_errors</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>_corrected_errors</t>
+  </si>
+  <si>
+    <t>_corrected</t>
+  </si>
+  <si>
+    <t>_valid_after_correction</t>
+  </si>
+  <si>
+    <t>_status</t>
+  </si>
+  <si>
+    <t>cust_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>house_number</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>postal_city</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>full_address</t>
+  </si>
+  <si>
+    <t>name_valid</t>
+  </si>
+  <si>
+    <t>surname_valid</t>
+  </si>
+  <si>
+    <t>email_valid</t>
+  </si>
+  <si>
+    <t>phone_number_valid</t>
+  </si>
+  <si>
+    <t>full_address_valid</t>
+  </si>
+  <si>
+    <t>name_detected_errors</t>
+  </si>
+  <si>
+    <t>surname_detected_errors</t>
+  </si>
+  <si>
+    <t>house_number_detected_errors</t>
+  </si>
+  <si>
+    <t>postal_code_detected_errors</t>
+  </si>
+  <si>
+    <t>postal_city_detected_errors</t>
+  </si>
+  <si>
+    <t>email_detected_errors</t>
+  </si>
+  <si>
+    <t>phone_number_detected_errors</t>
+  </si>
+  <si>
+    <t>has_name_errors</t>
+  </si>
+  <si>
+    <t>has_surname_errors</t>
+  </si>
+  <si>
+    <t>has_street_errors</t>
+  </si>
+  <si>
+    <t>has_house_number_errors</t>
+  </si>
+  <si>
+    <t>has_postal_code_errors</t>
+  </si>
+  <si>
+    <t>has_postal_city_errors</t>
+  </si>
+  <si>
+    <t>has_email_errors</t>
+  </si>
+  <si>
+    <t>has_phone_number_errors</t>
+  </si>
+  <si>
+    <t>name_corrected_errors</t>
+  </si>
+  <si>
+    <t>surname_corrected_errors</t>
+  </si>
+  <si>
+    <t>street_corrected_errors</t>
+  </si>
+  <si>
+    <t>house_number_corrected_errors</t>
+  </si>
+  <si>
+    <t>postal_code_corrected_errors</t>
+  </si>
+  <si>
+    <t>postal_city_corrected_errors</t>
+  </si>
+  <si>
+    <t>email_corrected_errors</t>
+  </si>
+  <si>
+    <t>phone_number_corrected_errors</t>
+  </si>
+  <si>
+    <t>was_name_corrected</t>
+  </si>
+  <si>
+    <t>was_surname_corrected</t>
+  </si>
+  <si>
+    <t>was_street_corrected</t>
+  </si>
+  <si>
+    <t>was_house_number_corrected</t>
+  </si>
+  <si>
+    <t>was_postal_code_corrected</t>
+  </si>
+  <si>
+    <t>was_postal_city_corrected</t>
+  </si>
+  <si>
+    <t>was_email_corrected</t>
+  </si>
+  <si>
+    <t>was_phone_number_corrected</t>
+  </si>
+  <si>
+    <t>name_corrected</t>
+  </si>
+  <si>
+    <t>surname_corrected</t>
+  </si>
+  <si>
+    <t>street_corrected</t>
+  </si>
+  <si>
+    <t>house_number_corrected</t>
+  </si>
+  <si>
+    <t>postal_code_corrected</t>
+  </si>
+  <si>
+    <t>postal_city_corrected</t>
+  </si>
+  <si>
+    <t>email_corrected</t>
+  </si>
+  <si>
+    <t>phone_number_corrected</t>
+  </si>
+  <si>
+    <t>name_valid_after_correction</t>
+  </si>
+  <si>
+    <t>surname_valid_after_correction</t>
+  </si>
+  <si>
+    <t>email_valid_after_correction</t>
+  </si>
+  <si>
+    <t>phone_number_valid_after_correction</t>
+  </si>
+  <si>
+    <t>full_address_valid_after_correction</t>
+  </si>
+  <si>
+    <t>name_status</t>
+  </si>
+  <si>
+    <t>surname_status</t>
+  </si>
+  <si>
+    <t>email_status</t>
+  </si>
+  <si>
+    <t>phone_number_status</t>
+  </si>
+  <si>
+    <t>full_address_status</t>
+  </si>
+  <si>
+    <t>Pot  Sv. Antona Pot  Sv. Antona</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>duplicates not detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polje, cesta XXVI </t>
+  </si>
+  <si>
+    <t>4102, 4104</t>
+  </si>
+  <si>
+    <t>roman numbers should not be detected as formatting issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesta 19. oktobra </t>
+  </si>
+  <si>
+    <t>this should not flag formatting issues, so, i added so it first removes non lettter characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabel^ja vas </t>
+  </si>
+  <si>
+    <t>4102, 4103, 4104</t>
+  </si>
+  <si>
+    <t>had to changeregex from r"[^a-žA-Ž\s]" --&gt; [^a-zA-ZčćšžČĆŠŽ\s]</t>
+  </si>
+  <si>
+    <t>Ulica  bratov U!akar</t>
+  </si>
+  <si>
+    <t>should not trigger formatting</t>
+  </si>
+  <si>
+    <t>Vrečarjeva ulica  21A B$</t>
+  </si>
+  <si>
+    <t>4102, 4106, 4113</t>
+  </si>
+  <si>
+    <t>Ulica  Bruna Gobca 7 N.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kajuhova ul. 66 B$</t>
+  </si>
+  <si>
+    <t>this should be error that BŠ and house nmber are present</t>
+  </si>
+  <si>
+    <t>4103, 4104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should not be detected as formatting </t>
+  </si>
+  <si>
+    <t>added bool(words) and to the rule_condition</t>
+  </si>
+  <si>
+    <t>Ulica  Franca Rozmana-Staneta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should not trigger formatting </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cleaned_street </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B1D6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7AA2F7"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ABDF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFBB9AF7"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"[^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ECE6A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>a-zA-ZčćšžČĆŠŽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB4F9F8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> street</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7AA2F7"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ABDF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE0AF68"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF9E64"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>IGNORECASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ABDF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cleaned_street </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B1D6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7AA2F7"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ABDF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFBB9AF7"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"[^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ECE6A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>a-zA-ZčćšžČĆŠŽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB4F9F8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>\s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>" ",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> street</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7AA2F7"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ABDF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE0AF68"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0CAF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF9E64"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>IGNORECASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9ABDF5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>adapted the rule from (substituted with space and not empty string)</t>
+  </si>
+  <si>
+    <t>Ulica OF</t>
+  </si>
+  <si>
+    <t>4104</t>
+  </si>
+  <si>
+    <t>edge case, wont fix</t>
+  </si>
+  <si>
+    <t>here i would like it more if it was error contains house number raised 4105 and not 4113</t>
+  </si>
+  <si>
+    <t>Gub�eva ul. 955 NH</t>
+  </si>
+  <si>
+    <t>4105, 4106</t>
+  </si>
+  <si>
+    <t>Prešernova u. Prešernova ulica 13</t>
+  </si>
+  <si>
+    <t>4105, 4107</t>
+  </si>
+  <si>
+    <t>didnt detect duplicates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +971,73 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA9B1D6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF89DDFF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7AA2F7"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9ABDF5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFBB9AF7"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9ECE6A"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB4F9F8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0CAF5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE0AF68"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF9E64"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -247,7 +1093,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -256,6 +1102,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -592,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16C551F-F86E-B14A-A7F4-EA040268C6A2}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A29" sqref="A29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +1457,7 @@
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>5160</v>
       </c>
@@ -630,7 +1482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>994</v>
       </c>
@@ -644,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3039</v>
       </c>
@@ -658,7 +1510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -672,7 +1524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>465</v>
       </c>
@@ -689,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>988</v>
       </c>
@@ -703,7 +1555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5325</v>
       </c>
@@ -717,7 +1569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5675</v>
       </c>
@@ -731,77 +1583,895 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>4092</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1452</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1699</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4756</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>6754</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7961</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1642</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>645</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1193</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1723</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>514</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4852</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6546</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8368</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D15:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC83E0-93E4-9748-8FAB-AB4E6A4C6366}">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.CONCAT(A4,$C$2)</f>
+        <v>name_valid</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT(A4,$D$2)</f>
+        <v>name_detected_errors</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.CONCAT("has_",A4,"_errors")</f>
+        <v>has_name_errors</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xlfn.CONCAT(A4,$F$2)</f>
+        <v>name_corrected_errors</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xlfn.CONCAT("was_",A4,"_corrected")</f>
+        <v>was_name_corrected</v>
+      </c>
+      <c r="H4" t="str">
+        <f>_xlfn.CONCAT(A4,$H$2)</f>
+        <v>name_corrected</v>
+      </c>
+      <c r="I4" t="str">
+        <f>_xlfn.CONCAT(A4,$I$2)</f>
+        <v>name_valid_after_correction</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xlfn.CONCAT(A4,$J$2)</f>
+        <v>name_status</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.CONCAT(A5,$C$2)</f>
+        <v>surname_valid</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.CONCAT(A5,$D$2)</f>
+        <v>surname_detected_errors</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E11" si="0">_xlfn.CONCAT("has_",A5,"_errors")</f>
+        <v>has_surname_errors</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xlfn.CONCAT(A5,$F$2)</f>
+        <v>surname_corrected_errors</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G11" si="1">_xlfn.CONCAT("was_",A5,"_corrected")</f>
+        <v>was_surname_corrected</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xlfn.CONCAT(A5,$H$2)</f>
+        <v>surname_corrected</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xlfn.CONCAT(A5,$I$2)</f>
+        <v>surname_valid_after_correction</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(A5,$J$2)</f>
+        <v>surname_status</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.CONCAT(A6,$D$2)</f>
+        <v>street_detected_errors</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>has_street_errors</v>
+      </c>
+      <c r="F6" t="str">
+        <f>_xlfn.CONCAT(A6,$F$2)</f>
+        <v>street_corrected_errors</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>was_street_corrected</v>
+      </c>
+      <c r="H6" t="str">
+        <f>_xlfn.CONCAT(A6,$H$2)</f>
+        <v>street_corrected</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.CONCAT(A7,$D$2)</f>
+        <v>house_number_detected_errors</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>has_house_number_errors</v>
+      </c>
+      <c r="F7" t="str">
+        <f>_xlfn.CONCAT(A7,$F$2)</f>
+        <v>house_number_corrected_errors</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>was_house_number_corrected</v>
+      </c>
+      <c r="H7" t="str">
+        <f>_xlfn.CONCAT(A7,$H$2)</f>
+        <v>house_number_corrected</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT(A8,$D$2)</f>
+        <v>postal_code_detected_errors</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>has_postal_code_errors</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT(A8,$F$2)</f>
+        <v>postal_code_corrected_errors</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>was_postal_code_corrected</v>
+      </c>
+      <c r="H8" t="str">
+        <f>_xlfn.CONCAT(A8,$H$2)</f>
+        <v>postal_code_corrected</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT(A9,$D$2)</f>
+        <v>postal_city_detected_errors</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>has_postal_city_errors</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT(A9,$F$2)</f>
+        <v>postal_city_corrected_errors</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>was_postal_city_corrected</v>
+      </c>
+      <c r="H9" t="str">
+        <f>_xlfn.CONCAT(A9,$H$2)</f>
+        <v>postal_city_corrected</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT(A10,$C$2)</f>
+        <v>email_valid</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT(A10,$D$2)</f>
+        <v>email_detected_errors</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>has_email_errors</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT(A10,$F$2)</f>
+        <v>email_corrected_errors</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>was_email_corrected</v>
+      </c>
+      <c r="H10" t="str">
+        <f>_xlfn.CONCAT(A10,$H$2)</f>
+        <v>email_corrected</v>
+      </c>
+      <c r="I10" t="str">
+        <f>_xlfn.CONCAT(A10,$I$2)</f>
+        <v>email_valid_after_correction</v>
+      </c>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT(A10,$J$2)</f>
+        <v>email_status</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT(A11,$C$2)</f>
+        <v>phone_number_valid</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT(A11,$D$2)</f>
+        <v>phone_number_detected_errors</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>has_phone_number_errors</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT(A11,$F$2)</f>
+        <v>phone_number_corrected_errors</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>was_phone_number_corrected</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT(A11,$H$2)</f>
+        <v>phone_number_corrected</v>
+      </c>
+      <c r="I11" t="str">
+        <f>_xlfn.CONCAT(A11,$I$2)</f>
+        <v>phone_number_valid_after_correction</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT(A11,$J$2)</f>
+        <v>phone_number_status</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4852</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2211</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>6546</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8368</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT(A12,$C$2)</f>
+        <v>full_address_valid</v>
+      </c>
+      <c r="I12" t="str">
+        <f>_xlfn.CONCAT(A12,$I$2)</f>
+        <v>full_address_valid_after_correction</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT(A12,$J$2)</f>
+        <v>full_address_status</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/src/raw_data/correction of detection .xlsx
+++ b/src/raw_data/correction of detection .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D103CBFC-55A8-E242-9624-FA0B544A57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB25E10-168D-5F49-A6D5-49A2F4803255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="5800" windowWidth="27240" windowHeight="16440" xr2:uid="{2D99D46F-514D-2B46-BA32-84B5FAB9E921}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="161">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -938,6 +938,24 @@
   </si>
   <si>
     <t>didnt detect duplicates</t>
+  </si>
+  <si>
+    <t>Šaleška ce. B$</t>
+  </si>
+  <si>
+    <t>should also trigger error 4107, invalid abbr</t>
+  </si>
+  <si>
+    <t>Mariborska cesta  N.H.</t>
+  </si>
+  <si>
+    <t>4102, 4106, 4107</t>
+  </si>
+  <si>
+    <t>shouldnt now trigger 4107</t>
+  </si>
+  <si>
+    <t>these two dont want to work together, correcting one leads to the other one being shit</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1108,6 +1126,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1447,7 +1468,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F37"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1780,6 +1801,38 @@
         <v>154</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>91</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>327</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
@@ -1860,10 +1913,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/src/raw_data/correction of detection .xlsx
+++ b/src/raw_data/correction of detection .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB25E10-168D-5F49-A6D5-49A2F4803255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A74F96A-C086-1940-BEA1-A02225B323BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="5800" windowWidth="27240" windowHeight="16440" xr2:uid="{2D99D46F-514D-2B46-BA32-84B5FAB9E921}"/>
+    <workbookView xWindow="1740" yWindow="5800" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2D99D46F-514D-2B46-BA32-84B5FAB9E921}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="191">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -162,81 +162,9 @@
     <t>+ not any(re.match(rf"^{re.escape(p)}", street_number) for p in roman_numbers + hn_patterns)</t>
   </si>
   <si>
-    <t>[field]_valid</t>
-  </si>
-  <si>
-    <t>[field]_detected_errors</t>
-  </si>
-  <si>
-    <t>has_[field]_errors</t>
-  </si>
-  <si>
-    <t>[field]_corrected_errors</t>
-  </si>
-  <si>
-    <t>was_[field]_corrected</t>
-  </si>
-  <si>
-    <t>[field]_corrected</t>
-  </si>
-  <si>
-    <t>[field]_valid_after_correction</t>
-  </si>
-  <si>
-    <t>[field]_status</t>
-  </si>
-  <si>
-    <t>_valid</t>
-  </si>
-  <si>
-    <t>_detected_errors</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>_corrected_errors</t>
-  </si>
-  <si>
-    <t>_corrected</t>
-  </si>
-  <si>
-    <t>_valid_after_correction</t>
-  </si>
-  <si>
-    <t>_status</t>
-  </si>
-  <si>
     <t>cust_id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>house_number</t>
-  </si>
-  <si>
-    <t>postal_code</t>
-  </si>
-  <si>
-    <t>postal_city</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>full_address</t>
-  </si>
-  <si>
     <t>name_valid</t>
   </si>
   <si>
@@ -956,6 +884,168 @@
   </si>
   <si>
     <t>these two dont want to work together, correcting one leads to the other one being shit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rojska c. B.S.</t>
+  </si>
+  <si>
+    <t>but i need both to function</t>
+  </si>
+  <si>
+    <t>ULICA  PRVOBORCEV N.H.</t>
+  </si>
+  <si>
+    <t>4102, 4106</t>
+  </si>
+  <si>
+    <t>should trigger formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B$ wasnt corrected </t>
+  </si>
+  <si>
+    <t>Krumperška ul. ulica</t>
+  </si>
+  <si>
+    <t>Krumperška ulica ulica</t>
+  </si>
+  <si>
+    <t>4107</t>
+  </si>
+  <si>
+    <t>THIS IS WAY MULTIPLE ITERATIONS ARE NEEDED, LOOPINH</t>
+  </si>
+  <si>
+    <t>corrected_street</t>
+  </si>
+  <si>
+    <t>corrected_street_errors</t>
+  </si>
+  <si>
+    <t>uncorrected_street_errors</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>HOUSE_NUMBER</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>POSTAL_CITY</t>
+  </si>
+  <si>
+    <t>INTRODUCED_ERRORS</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_VALID</t>
+  </si>
+  <si>
+    <t>LAST_NAME_VALID</t>
+  </si>
+  <si>
+    <t>name_has_errors</t>
+  </si>
+  <si>
+    <t>surname_has_errors</t>
+  </si>
+  <si>
+    <t>corrected_first_name</t>
+  </si>
+  <si>
+    <t>corrected_first_name_errors</t>
+  </si>
+  <si>
+    <t>corrected_last_name</t>
+  </si>
+  <si>
+    <t>corrected_last_name_errors</t>
+  </si>
+  <si>
+    <t>uncorrected_first_name_errors</t>
+  </si>
+  <si>
+    <t>uncorrected_last_name_errors</t>
+  </si>
+  <si>
+    <t>corrected_first_name_VALID</t>
+  </si>
+  <si>
+    <t>corrected_last_name_VALID</t>
+  </si>
+  <si>
+    <t>NAME_STATUS</t>
+  </si>
+  <si>
+    <t>SURNAME_STATUS</t>
+  </si>
+  <si>
+    <t>[FIELD]_VALID</t>
+  </si>
+  <si>
+    <t>[FIELD]_DETECTED_ERRORS</t>
+  </si>
+  <si>
+    <t>[FIELD]_HAS_ERRORS</t>
+  </si>
+  <si>
+    <t>[FIELD]_CORRECTED</t>
+  </si>
+  <si>
+    <t>[FIELD]_CORRECTED_ERRORS</t>
+  </si>
+  <si>
+    <t>[FIELD]_WAS_CORRECTED</t>
+  </si>
+  <si>
+    <t>[FIELD]_VALID_AFTER_CORRECTION</t>
+  </si>
+  <si>
+    <t>[FIELD]_STATUS</t>
+  </si>
+  <si>
+    <t>_VALID</t>
+  </si>
+  <si>
+    <t>_DETECTED_ERRORS</t>
+  </si>
+  <si>
+    <t>_HAS_ERRORS</t>
+  </si>
+  <si>
+    <t>_CORRECTED</t>
+  </si>
+  <si>
+    <t>_CORRECTED_ERRORS</t>
+  </si>
+  <si>
+    <t>_WAS_CORRECTED</t>
+  </si>
+  <si>
+    <t>_VALID_AFTER_CORRECTION</t>
+  </si>
+  <si>
+    <t>_STATUS</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>FULL_ADDRESS</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1216,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1465,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16C551F-F86E-B14A-A7F4-EA040268C6A2}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,13 +1699,13 @@
         <v>4092</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1623,13 +1713,13 @@
         <v>1452</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1637,13 +1727,13 @@
         <v>1699</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1652,16 +1742,16 @@
         <v>4756</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1669,13 +1759,13 @@
         <v>6754</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1683,16 +1773,16 @@
         <v>3003</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1700,10 +1790,10 @@
         <v>7961</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -1712,10 +1802,10 @@
         <v>8270</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -1727,13 +1817,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1741,22 +1831,22 @@
         <v>645</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1764,13 +1854,13 @@
         <v>1193</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1778,13 +1868,13 @@
         <v>1723</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1792,45 +1882,74 @@
         <v>514</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>91</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>327</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>158</v>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="3" t="s">
-        <v>159</v>
+      <c r="E24" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>9147</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1582</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1883,7 +2002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8368</v>
       </c>
@@ -1897,25 +2016,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F36" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F37" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3345</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1924,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC83E0-93E4-9748-8FAB-AB4E6A4C6366}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,358 +2099,427 @@
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT(A4,$C$2)</f>
-        <v>name_valid</v>
+        <v>NAME_VALID</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(A4,$D$2)</f>
-        <v>name_detected_errors</v>
+        <v>NAME_DETECTED_ERRORS</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("has_",A4,"_errors")</f>
-        <v>has_name_errors</v>
+        <v>has_NAME_errors</v>
       </c>
       <c r="F4" t="str">
-        <f>_xlfn.CONCAT(A4,$F$2)</f>
-        <v>name_corrected_errors</v>
+        <f>_xlfn.CONCAT(A4,$G$2)</f>
+        <v>NAME_CORRECTED_ERRORS</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.CONCAT("was_",A4,"_corrected")</f>
-        <v>was_name_corrected</v>
+        <v>was_NAME_corrected</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.CONCAT(A4,$H$2)</f>
-        <v>name_corrected</v>
+        <f>_xlfn.CONCAT(A4,$F$2)</f>
+        <v>NAME_CORRECTED</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.CONCAT(A4,$I$2)</f>
-        <v>name_valid_after_correction</v>
+        <v>NAME_VALID_AFTER_CORRECTION</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT(A4,$J$2)</f>
-        <v>name_status</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>NAME_STATUS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT(A5,$C$2)</f>
-        <v>surname_valid</v>
+        <v>SURNAME_VALID</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT(A5,$D$2)</f>
-        <v>surname_detected_errors</v>
+        <v>SURNAME_DETECTED_ERRORS</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E11" si="0">_xlfn.CONCAT("has_",A5,"_errors")</f>
-        <v>has_surname_errors</v>
+        <v>has_SURNAME_errors</v>
       </c>
       <c r="F5" t="str">
-        <f>_xlfn.CONCAT(A5,$F$2)</f>
-        <v>surname_corrected_errors</v>
+        <f>_xlfn.CONCAT(A5,$G$2)</f>
+        <v>SURNAME_CORRECTED_ERRORS</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G11" si="1">_xlfn.CONCAT("was_",A5,"_corrected")</f>
-        <v>was_surname_corrected</v>
+        <v>was_SURNAME_corrected</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.CONCAT(A5,$H$2)</f>
-        <v>surname_corrected</v>
+        <f>_xlfn.CONCAT(A5,$F$2)</f>
+        <v>SURNAME_CORRECTED</v>
       </c>
       <c r="I5" t="str">
         <f>_xlfn.CONCAT(A5,$I$2)</f>
-        <v>surname_valid_after_correction</v>
+        <v>SURNAME_VALID_AFTER_CORRECTION</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.CONCAT(A5,$J$2)</f>
-        <v>surname_status</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>SURNAME_STATUS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT(A6,$D$2)</f>
-        <v>street_detected_errors</v>
+        <v>STREET_DETECTED_ERRORS</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>has_street_errors</v>
+        <v>has_STREET_errors</v>
       </c>
       <c r="F6" t="str">
-        <f>_xlfn.CONCAT(A6,$F$2)</f>
-        <v>street_corrected_errors</v>
+        <f>_xlfn.CONCAT(A6,$G$2)</f>
+        <v>STREET_CORRECTED_ERRORS</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>was_street_corrected</v>
+        <v>was_STREET_corrected</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.CONCAT(A6,$H$2)</f>
-        <v>street_corrected</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT(A6,$F$2)</f>
+        <v>STREET_CORRECTED</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(A7,$D$2)</f>
-        <v>house_number_detected_errors</v>
+        <v>HOUSE_NUMBER_DETECTED_ERRORS</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>has_house_number_errors</v>
+        <v>has_HOUSE_NUMBER_errors</v>
       </c>
       <c r="F7" t="str">
-        <f>_xlfn.CONCAT(A7,$F$2)</f>
-        <v>house_number_corrected_errors</v>
+        <f>_xlfn.CONCAT(A7,$G$2)</f>
+        <v>HOUSE_NUMBER_CORRECTED_ERRORS</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>was_house_number_corrected</v>
+        <v>was_HOUSE_NUMBER_corrected</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.CONCAT(A7,$H$2)</f>
-        <v>house_number_corrected</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT(A7,$F$2)</f>
+        <v>HOUSE_NUMBER_CORRECTED</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(A8,$D$2)</f>
-        <v>postal_code_detected_errors</v>
+        <v>POSTAL_CODE_DETECTED_ERRORS</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>has_postal_code_errors</v>
+        <v>has_POSTAL_CODE_errors</v>
       </c>
       <c r="F8" t="str">
-        <f>_xlfn.CONCAT(A8,$F$2)</f>
-        <v>postal_code_corrected_errors</v>
+        <f>_xlfn.CONCAT(A8,$G$2)</f>
+        <v>POSTAL_CODE_CORRECTED_ERRORS</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>was_postal_code_corrected</v>
+        <v>was_POSTAL_CODE_corrected</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.CONCAT(A8,$H$2)</f>
-        <v>postal_code_corrected</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT(A8,$F$2)</f>
+        <v>POSTAL_CODE_CORRECTED</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT(A9,$D$2)</f>
-        <v>postal_city_detected_errors</v>
+        <v>POSTAL_CITY_DETECTED_ERRORS</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>has_postal_city_errors</v>
+        <v>has_POSTAL_CITY_errors</v>
       </c>
       <c r="F9" t="str">
-        <f>_xlfn.CONCAT(A9,$F$2)</f>
-        <v>postal_city_corrected_errors</v>
+        <f>_xlfn.CONCAT(A9,$G$2)</f>
+        <v>POSTAL_CITY_CORRECTED_ERRORS</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>was_postal_city_corrected</v>
+        <v>was_POSTAL_CITY_corrected</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.CONCAT(A9,$H$2)</f>
-        <v>postal_city_corrected</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT(A9,$F$2)</f>
+        <v>POSTAL_CITY_CORRECTED</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT(A10,$C$2)</f>
-        <v>email_valid</v>
+        <v>EMAIL_VALID</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT(A10,$D$2)</f>
-        <v>email_detected_errors</v>
+        <v>EMAIL_DETECTED_ERRORS</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>has_email_errors</v>
+        <v>has_EMAIL_errors</v>
       </c>
       <c r="F10" t="str">
-        <f>_xlfn.CONCAT(A10,$F$2)</f>
-        <v>email_corrected_errors</v>
+        <f>_xlfn.CONCAT(A10,$G$2)</f>
+        <v>EMAIL_CORRECTED_ERRORS</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>was_email_corrected</v>
+        <v>was_EMAIL_corrected</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.CONCAT(A10,$H$2)</f>
-        <v>email_corrected</v>
+        <f>_xlfn.CONCAT(A10,$F$2)</f>
+        <v>EMAIL_CORRECTED</v>
       </c>
       <c r="I10" t="str">
         <f>_xlfn.CONCAT(A10,$I$2)</f>
-        <v>email_valid_after_correction</v>
+        <v>EMAIL_VALID_AFTER_CORRECTION</v>
       </c>
       <c r="J10" t="str">
         <f>_xlfn.CONCAT(A10,$J$2)</f>
-        <v>email_status</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>EMAIL_STATUS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT(A11,$C$2)</f>
-        <v>phone_number_valid</v>
+        <v>PHONE_NUMBER_VALID</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT(A11,$D$2)</f>
-        <v>phone_number_detected_errors</v>
+        <v>PHONE_NUMBER_DETECTED_ERRORS</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>has_phone_number_errors</v>
+        <v>has_PHONE_NUMBER_errors</v>
       </c>
       <c r="F11" t="str">
-        <f>_xlfn.CONCAT(A11,$F$2)</f>
-        <v>phone_number_corrected_errors</v>
+        <f>_xlfn.CONCAT(A11,$G$2)</f>
+        <v>PHONE_NUMBER_CORRECTED_ERRORS</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>was_phone_number_corrected</v>
+        <v>was_PHONE_NUMBER_corrected</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.CONCAT(A11,$H$2)</f>
-        <v>phone_number_corrected</v>
+        <f>_xlfn.CONCAT(A11,$F$2)</f>
+        <v>PHONE_NUMBER_CORRECTED</v>
       </c>
       <c r="I11" t="str">
         <f>_xlfn.CONCAT(A11,$I$2)</f>
-        <v>phone_number_valid_after_correction</v>
+        <v>PHONE_NUMBER_VALID_AFTER_CORRECTION</v>
       </c>
       <c r="J11" t="str">
         <f>_xlfn.CONCAT(A11,$J$2)</f>
-        <v>phone_number_status</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>PHONE_NUMBER_STATUS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT(A12,$C$2)</f>
-        <v>full_address_valid</v>
+        <v>FULL_ADDRESS_VALID</v>
       </c>
       <c r="I12" t="str">
         <f>_xlfn.CONCAT(A12,$I$2)</f>
-        <v>full_address_valid_after_correction</v>
+        <v>FULL_ADDRESS_VALID_AFTER_CORRECTION</v>
       </c>
       <c r="J12" t="str">
         <f>_xlfn.CONCAT(A12,$J$2)</f>
-        <v>full_address_status</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>FULL_ADDRESS_STATUS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -2296,237 +2529,237 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/src/raw_data/correction of detection .xlsx
+++ b/src/raw_data/correction of detection .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A74F96A-C086-1940-BEA1-A02225B323BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A711FA-B4E2-974B-9286-A31210EFAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="5800" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2D99D46F-514D-2B46-BA32-84B5FAB9E921}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -165,168 +165,6 @@
     <t>cust_id</t>
   </si>
   <si>
-    <t>name_valid</t>
-  </si>
-  <si>
-    <t>surname_valid</t>
-  </si>
-  <si>
-    <t>email_valid</t>
-  </si>
-  <si>
-    <t>phone_number_valid</t>
-  </si>
-  <si>
-    <t>full_address_valid</t>
-  </si>
-  <si>
-    <t>name_detected_errors</t>
-  </si>
-  <si>
-    <t>surname_detected_errors</t>
-  </si>
-  <si>
-    <t>house_number_detected_errors</t>
-  </si>
-  <si>
-    <t>postal_code_detected_errors</t>
-  </si>
-  <si>
-    <t>postal_city_detected_errors</t>
-  </si>
-  <si>
-    <t>email_detected_errors</t>
-  </si>
-  <si>
-    <t>phone_number_detected_errors</t>
-  </si>
-  <si>
-    <t>has_name_errors</t>
-  </si>
-  <si>
-    <t>has_surname_errors</t>
-  </si>
-  <si>
-    <t>has_street_errors</t>
-  </si>
-  <si>
-    <t>has_house_number_errors</t>
-  </si>
-  <si>
-    <t>has_postal_code_errors</t>
-  </si>
-  <si>
-    <t>has_postal_city_errors</t>
-  </si>
-  <si>
-    <t>has_email_errors</t>
-  </si>
-  <si>
-    <t>has_phone_number_errors</t>
-  </si>
-  <si>
-    <t>name_corrected_errors</t>
-  </si>
-  <si>
-    <t>surname_corrected_errors</t>
-  </si>
-  <si>
-    <t>street_corrected_errors</t>
-  </si>
-  <si>
-    <t>house_number_corrected_errors</t>
-  </si>
-  <si>
-    <t>postal_code_corrected_errors</t>
-  </si>
-  <si>
-    <t>postal_city_corrected_errors</t>
-  </si>
-  <si>
-    <t>email_corrected_errors</t>
-  </si>
-  <si>
-    <t>phone_number_corrected_errors</t>
-  </si>
-  <si>
-    <t>was_name_corrected</t>
-  </si>
-  <si>
-    <t>was_surname_corrected</t>
-  </si>
-  <si>
-    <t>was_street_corrected</t>
-  </si>
-  <si>
-    <t>was_house_number_corrected</t>
-  </si>
-  <si>
-    <t>was_postal_code_corrected</t>
-  </si>
-  <si>
-    <t>was_postal_city_corrected</t>
-  </si>
-  <si>
-    <t>was_email_corrected</t>
-  </si>
-  <si>
-    <t>was_phone_number_corrected</t>
-  </si>
-  <si>
-    <t>name_corrected</t>
-  </si>
-  <si>
-    <t>surname_corrected</t>
-  </si>
-  <si>
-    <t>street_corrected</t>
-  </si>
-  <si>
-    <t>house_number_corrected</t>
-  </si>
-  <si>
-    <t>postal_code_corrected</t>
-  </si>
-  <si>
-    <t>postal_city_corrected</t>
-  </si>
-  <si>
-    <t>email_corrected</t>
-  </si>
-  <si>
-    <t>phone_number_corrected</t>
-  </si>
-  <si>
-    <t>name_valid_after_correction</t>
-  </si>
-  <si>
-    <t>surname_valid_after_correction</t>
-  </si>
-  <si>
-    <t>email_valid_after_correction</t>
-  </si>
-  <si>
-    <t>phone_number_valid_after_correction</t>
-  </si>
-  <si>
-    <t>full_address_valid_after_correction</t>
-  </si>
-  <si>
-    <t>name_status</t>
-  </si>
-  <si>
-    <t>surname_status</t>
-  </si>
-  <si>
-    <t>email_status</t>
-  </si>
-  <si>
-    <t>phone_number_status</t>
-  </si>
-  <si>
-    <t>full_address_status</t>
-  </si>
-  <si>
     <t>Pot  Sv. Antona Pot  Sv. Antona</t>
   </si>
   <si>
@@ -925,12 +763,6 @@
     <t>uncorrected_street_errors</t>
   </si>
   <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -944,51 +776,6 @@
   </si>
   <si>
     <t>POSTAL_CITY</t>
-  </si>
-  <si>
-    <t>INTRODUCED_ERRORS</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_VALID</t>
-  </si>
-  <si>
-    <t>LAST_NAME_VALID</t>
-  </si>
-  <si>
-    <t>name_has_errors</t>
-  </si>
-  <si>
-    <t>surname_has_errors</t>
-  </si>
-  <si>
-    <t>corrected_first_name</t>
-  </si>
-  <si>
-    <t>corrected_first_name_errors</t>
-  </si>
-  <si>
-    <t>corrected_last_name</t>
-  </si>
-  <si>
-    <t>corrected_last_name_errors</t>
-  </si>
-  <si>
-    <t>uncorrected_first_name_errors</t>
-  </si>
-  <si>
-    <t>uncorrected_last_name_errors</t>
-  </si>
-  <si>
-    <t>corrected_first_name_VALID</t>
-  </si>
-  <si>
-    <t>corrected_last_name_VALID</t>
-  </si>
-  <si>
-    <t>NAME_STATUS</t>
-  </si>
-  <si>
-    <t>SURNAME_STATUS</t>
   </si>
   <si>
     <t>[FIELD]_VALID</t>
@@ -1699,13 +1486,13 @@
         <v>4092</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1713,13 +1500,13 @@
         <v>1452</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1727,13 +1514,13 @@
         <v>1699</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1742,16 +1529,16 @@
         <v>4756</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1759,13 +1546,13 @@
         <v>6754</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1773,16 +1560,16 @@
         <v>3003</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1790,10 +1577,10 @@
         <v>7961</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -1802,10 +1589,10 @@
         <v>8270</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -1817,13 +1604,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1831,22 +1618,22 @@
         <v>645</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1854,13 +1641,13 @@
         <v>1193</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1868,13 +1655,13 @@
         <v>1723</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1882,13 +1669,13 @@
         <v>514</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1896,16 +1683,16 @@
         <v>91</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1913,14 +1700,14 @@
         <v>327</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="4" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1928,14 +1715,14 @@
         <v>9147</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="4" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1943,13 +1730,13 @@
         <v>1582</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2033,7 +1820,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2044,16 +1831,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2061,19 +1848,19 @@
         <v>3345</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC83E0-93E4-9748-8FAB-AB4E6A4C6366}">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2101,54 +1888,54 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -2158,7 +1945,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT(A4,$C$2)</f>
@@ -2195,7 +1982,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT(A5,$C$2)</f>
@@ -2257,7 +2044,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(A7,$D$2)</f>
@@ -2282,7 +2069,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(A8,$D$2)</f>
@@ -2307,7 +2094,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT(A9,$D$2)</f>
@@ -2332,7 +2119,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT(A10,$C$2)</f>
@@ -2369,7 +2156,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT(A11,$C$2)</f>
@@ -2406,7 +2193,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT(A12,$C$2)</f>
@@ -2421,348 +2208,32 @@
         <v>FULL_ADDRESS_STATUS</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>95</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>